--- a/medicine/Mort/Interviews_Before_Execution/Interviews_Before_Execution.xlsx
+++ b/medicine/Mort/Interviews_Before_Execution/Interviews_Before_Execution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interviews Before Execution (littéralement : Entrevues avant l'exécution ) est un talk show télévisé chinois qui a été diffusé de 2006 à 2012 sur le Henan Legal Channel de la province de Henan. Animé par la journaliste Ding Yu, celle-ci interviewe des condamnés à mort qui partagent leurs expériences. Les interviews sont souvent faits quelques heures avant l'exécution, ce qui incite régulièrement les interviewés à exprimer leurs émotions. Le but de l'émission est de dissuader les auditeurs de perpétrer une action qui les mènerait à être exécutés[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interviews Before Execution (littéralement : Entrevues avant l'exécution ) est un talk show télévisé chinois qui a été diffusé de 2006 à 2012 sur le Henan Legal Channel de la province de Henan. Animé par la journaliste Ding Yu, celle-ci interviewe des condamnés à mort qui partagent leurs expériences. Les interviews sont souvent faits quelques heures avant l'exécution, ce qui incite régulièrement les interviewés à exprimer leurs émotions. Le but de l'émission est de dissuader les auditeurs de perpétrer une action qui les mènerait à être exécutés,.
 La plupart ont été exécutés après la fin de l'interview mais certains ont vu leurs condamnations à mort annulées parmi lesquelles la femme reconnue coupable du meurtre de son mari, qui a fait valoir avec succès qu'elle avait été victime de violence conjugale.
 </t>
         </is>
